--- a/tests/template-excel/sample-array.xlsx
+++ b/tests/template-excel/sample-array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE6B974-7B82-418B-A51D-208F4F835D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D1FE5-83B2-492A-B622-FBE45838F930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="5820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>some things</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[A1-A2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B1-B2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[C1-D1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A4-B4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[G1-G3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am origin g4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[C2-E2]</t>
+    <t>move to i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[G1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{x}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,16 +412,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -413,17 +429,35 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
